--- a/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim-50_results.xlsx
+++ b/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim-50_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF62BEB-85C0-40FF-8C3E-FAA4A519BCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{C6427A44-7D40-46F6-8563-DC16408AFC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A7722D-05BD-4BE0-B86B-CC92BA4A1DEB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{EA276A27-E4D3-4F3F-BBD3-32516F9A8A45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{3CF3EF9B-5612-4373-85AA-FD95AE8E2512}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -204,39 +204,69 @@
     <t>change</t>
   </si>
   <si>
+    <t>Hokkaido</t>
+  </si>
+  <si>
+    <t>Tohoku_Hokuriku</t>
+  </si>
+  <si>
+    <t>Kanto_West</t>
+  </si>
+  <si>
+    <t>Okinawa</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>scane</t>
+  </si>
+  <si>
+    <t>sbeat</t>
+  </si>
+  <si>
+    <t>rapeseed</t>
+  </si>
+  <si>
+    <t>dairycow</t>
+  </si>
+  <si>
+    <t>dairyox</t>
+  </si>
+  <si>
+    <t>heifer</t>
+  </si>
+  <si>
+    <t>calves</t>
+  </si>
+  <si>
+    <t>swine</t>
+  </si>
+  <si>
+    <t>broiler</t>
+  </si>
+  <si>
+    <t>layinghens</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phosphate</t>
+  </si>
+  <si>
+    <t>kalium</t>
+  </si>
+  <si>
     <t>meat</t>
   </si>
   <si>
     <t>egg_dairy</t>
   </si>
   <si>
-    <t>Hokkaido</t>
-  </si>
-  <si>
-    <t>Tohoku_Hokuriku</t>
-  </si>
-  <si>
-    <t>Kanto_West</t>
-  </si>
-  <si>
-    <t>Okinawa</t>
-  </si>
-  <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>sorghum</t>
-  </si>
-  <si>
-    <t>scane</t>
-  </si>
-  <si>
-    <t>sbeat</t>
-  </si>
-  <si>
-    <t>rapeseed</t>
-  </si>
-  <si>
     <t>jan</t>
   </si>
   <si>
@@ -286,36 +316,6 @@
   </si>
   <si>
     <t>orchard</t>
-  </si>
-  <si>
-    <t>dairycow</t>
-  </si>
-  <si>
-    <t>dairyox</t>
-  </si>
-  <si>
-    <t>heifer</t>
-  </si>
-  <si>
-    <t>calves</t>
-  </si>
-  <si>
-    <t>swine</t>
-  </si>
-  <si>
-    <t>broiler</t>
-  </si>
-  <si>
-    <t>layinghens</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phosphate</t>
-  </si>
-  <si>
-    <t>kalium</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4F9B1-D112-4060-B38C-F10E1BA6A213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA98C8DD-1215-484B-B9E1-A23FE21BBC91}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1791,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274FF92-6DA1-4207-92B2-CCB772286A83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4FA11-147A-4AB7-8902-CA5E59376C52}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CBB7DF-5D65-4FAD-9728-E25AAC993E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D969C9-4132-43EF-8CAD-01A984991CE0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2660,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33182907-B19E-48B4-9B3C-5643642896C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B4AA7F-404E-47CC-8FBC-B12F562B6A21}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2790,13 +2790,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E6">
-        <v>977.10608874683339</v>
+        <v>954.61828080308476</v>
       </c>
       <c r="F6">
-        <v>-1180.6794254588494</v>
+        <v>-1203.167233402598</v>
       </c>
       <c r="G6">
-        <v>45.282818070382802</v>
+        <v>44.240647391429718</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2813,13 +2813,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>34.511593882893031</v>
+        <v>33.530307718074909</v>
       </c>
       <c r="F7">
-        <v>-35.616596993457527</v>
+        <v>-36.59788315827565</v>
       </c>
       <c r="G7">
-        <v>49.212154843326253</v>
+        <v>47.812879954646583</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2836,13 +2836,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>12.349687745364669</v>
+        <v>12.186140051228314</v>
       </c>
       <c r="F8">
-        <v>-52.383877680805803</v>
+        <v>-52.547425374942158</v>
       </c>
       <c r="G8">
-        <v>19.077719053571457</v>
+        <v>18.825071616249495</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2859,13 +2859,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E9">
-        <v>175.77970840606156</v>
+        <v>171.50702489674933</v>
       </c>
       <c r="F9">
-        <v>-147.88811872479079</v>
+        <v>-152.16080223410302</v>
       </c>
       <c r="G9">
-        <v>54.308675027807865</v>
+        <v>52.988592167800633</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2882,13 +2882,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E10">
-        <v>977.10608874683339</v>
+        <v>954.61828080308476</v>
       </c>
       <c r="F10">
-        <v>-1180.6794254588494</v>
+        <v>-1203.167233402598</v>
       </c>
       <c r="G10">
-        <v>45.282818070382802</v>
+        <v>44.240647391429718</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2905,13 +2905,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E11">
-        <v>34.511593882893031</v>
+        <v>33.530307718074909</v>
       </c>
       <c r="F11">
-        <v>-35.616596993457527</v>
+        <v>-36.59788315827565</v>
       </c>
       <c r="G11">
-        <v>49.212154843326253</v>
+        <v>47.812879954646583</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2928,13 +2928,13 @@
         <v>60.9</v>
       </c>
       <c r="E12">
-        <v>12.349687745364667</v>
+        <v>12.186140051228314</v>
       </c>
       <c r="F12">
-        <v>-52.383877680805803</v>
+        <v>-52.547425374942158</v>
       </c>
       <c r="G12">
-        <v>19.077719053571453</v>
+        <v>18.825071616249495</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2951,13 +2951,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E13">
-        <v>175.77970840606156</v>
+        <v>171.50702489674933</v>
       </c>
       <c r="F13">
-        <v>-147.88811872479079</v>
+        <v>-152.16080223410302</v>
       </c>
       <c r="G13">
-        <v>54.308675027807865</v>
+        <v>52.988592167800633</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6961C7-EDEB-4636-874C-3F4D8859CAB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08471975-5554-431F-AF46-B9811C895FB7}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3216,14 +3216,8 @@
       <c r="C15">
         <v>241.4</v>
       </c>
-      <c r="D15">
-        <v>81.773847068176934</v>
-      </c>
-      <c r="E15">
-        <v>33.874833085408838</v>
-      </c>
       <c r="F15">
-        <v>-159.62615293182307</v>
+        <v>-241.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3358,14 +3352,8 @@
       <c r="C23">
         <v>241.4</v>
       </c>
-      <c r="D23">
-        <v>81.773847068176806</v>
-      </c>
-      <c r="E23">
-        <v>33.874833085408788</v>
-      </c>
       <c r="F23">
-        <v>-159.62615293182319</v>
+        <v>-241.4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3427,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>92.699999999999989</v>
@@ -3447,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>303.7</v>
@@ -3467,7 +3455,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>92.699999999999989</v>
@@ -3487,7 +3475,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>303.7</v>
@@ -3507,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>92.699999999999989</v>
@@ -3527,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>303.7</v>
@@ -3549,10 +3537,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CE0F16-9A3F-492B-A053-89C3B1CF1EB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B7FD8-DF1D-4762-AC6A-65AD1E8E298B}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3576,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -3618,13 +3608,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>18</v>
@@ -3635,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>221.596</v>
@@ -3652,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>436.73298700000004</v>
@@ -3672,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>434.29161224962718</v>
@@ -3692,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0.38930300000000001</v>
@@ -3735,7 +3725,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>221.596</v>
@@ -3755,7 +3745,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>861.03700000000003</v>
@@ -3772,7 +3762,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1258.4839999999999</v>
@@ -3789,7 +3779,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0.751</v>
@@ -3811,9 +3801,6 @@
       <c r="C11">
         <v>2341.8680000000004</v>
       </c>
-      <c r="S11">
-        <v>166.34422404562767</v>
-      </c>
       <c r="U11">
         <v>35.099999999999994</v>
       </c>
@@ -3829,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>221.596</v>
@@ -3849,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>861.03700000000003</v>
@@ -3866,7 +3853,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1258.4839999999999</v>
@@ -3883,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0.751</v>
@@ -3904,9 +3891,6 @@
       </c>
       <c r="C16">
         <v>2341.8680000000004</v>
-      </c>
-      <c r="S16">
-        <v>166.34422404562744</v>
       </c>
       <c r="U16">
         <v>35.099999999999994</v>
@@ -3997,43 +3981,43 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -4053,10 +4037,10 @@
         <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>18</v>
@@ -4065,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>18</v>
@@ -4082,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H21">
         <v>0.7959499999999986</v>
@@ -4102,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H22">
         <v>0.7959499999999986</v>
@@ -4122,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H23">
         <v>0.7959499999999986</v>
@@ -4142,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <v>0.7959499999999986</v>
@@ -4162,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H25">
         <v>0.7959499999999986</v>
@@ -4185,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>824.87167382810219</v>
@@ -4226,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>824.87167382810219</v>
@@ -4267,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>824.87167382810219</v>
@@ -4308,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>824.87167382810219</v>
@@ -4349,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>754.61983882810216</v>
@@ -4390,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H31">
         <v>0.7959499999999986</v>
@@ -4410,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H32">
         <v>0.7959499999999986</v>
@@ -4430,7 +4414,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H33">
         <v>0.79594999999999683</v>
@@ -4456,7 +4440,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H34">
         <v>0.79594999999999683</v>
@@ -4482,7 +4466,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H35">
         <v>0.79594999999999683</v>
@@ -4508,7 +4492,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H36">
         <v>0.79594999999999683</v>
@@ -4534,7 +4518,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H37">
         <v>0.79594999999999683</v>
@@ -4563,7 +4547,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>1226.3071339999997</v>
@@ -4604,7 +4588,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>1226.3071339999997</v>
@@ -4645,7 +4629,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>1226.3071339999997</v>
@@ -4686,7 +4670,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>1226.3071339999997</v>
@@ -4727,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>1156.0552989999999</v>
@@ -4768,7 +4752,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H43">
         <v>0.79594999999999683</v>
@@ -4794,7 +4778,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H44">
         <v>0.79594999999999683</v>
@@ -4820,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>0.79594999999999683</v>
@@ -4846,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H46">
         <v>0.79594999999999683</v>
@@ -4872,7 +4856,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H47">
         <v>0.79594999999999683</v>
@@ -4898,7 +4882,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H48">
         <v>0.79594999999999683</v>
@@ -4924,7 +4908,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H49">
         <v>0.79594999999999683</v>
@@ -4953,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C50">
         <v>1226.3071339999997</v>
@@ -4994,7 +4978,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <v>1226.3071339999997</v>
@@ -5035,7 +5019,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>1226.3071339999997</v>
@@ -5076,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C53">
         <v>1226.3071339999997</v>
@@ -5117,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>1156.0552989999999</v>
@@ -5158,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H55">
         <v>0.79594999999999683</v>
@@ -5184,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H56">
         <v>0.79594999999999683</v>
@@ -5212,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F10AF60-BF31-4C3D-A5B3-2B26E87B38E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB65EB35-97AE-4433-8B67-73EAA959276E}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5239,10 +5223,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -5281,34 +5265,34 @@
         <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>18</v>
@@ -5350,9 +5334,6 @@
       <c r="B3">
         <v>0.515210959999999</v>
       </c>
-      <c r="R3">
-        <v>0.13557054259718626</v>
-      </c>
       <c r="T3">
         <v>9.3716999999999828E-2</v>
       </c>
@@ -5369,7 +5350,7 @@
         <v>3.7723597020824311E-3</v>
       </c>
       <c r="AF3">
-        <v>0.95992186416220338</v>
+        <v>0.82435132156501711</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5379,9 +5360,6 @@
       <c r="B4">
         <v>0.51521095999999911</v>
       </c>
-      <c r="R4">
-        <v>0.13557054259718609</v>
-      </c>
       <c r="T4">
         <v>9.3716999999999787E-2</v>
       </c>
@@ -5398,7 +5376,7 @@
         <v>3.7723597020824311E-3</v>
       </c>
       <c r="AF4">
-        <v>0.95992186416220338</v>
+        <v>0.82435132156501723</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5506,12 +5484,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD726B9-C91F-4D7B-AFBE-D3EC6C66800E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAFAD76-B726-4D47-8175-20A2C7B30C8A}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
@@ -5533,10 +5516,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -5575,13 +5558,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>18</v>
@@ -5592,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>83068.752570971716</v>
@@ -5618,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>98370.891202466504</v>
@@ -5644,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>104928.95061596428</v>
@@ -5670,14 +5653,11 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>177981.96799999999</v>
       </c>
-      <c r="S5">
-        <v>45744.661612547607</v>
-      </c>
       <c r="U5">
         <v>5019.3</v>
       </c>
@@ -5688,7 +5668,7 @@
         <v>2680.6160959999825</v>
       </c>
       <c r="Z5">
-        <v>236530.54570854758</v>
+        <v>190785.88409599997</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5696,14 +5676,11 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>210768.12</v>
       </c>
-      <c r="S6">
-        <v>27446.796967528564</v>
-      </c>
       <c r="U6">
         <v>1719.9</v>
       </c>
@@ -5714,7 +5691,7 @@
         <v>4188.4626499999722</v>
       </c>
       <c r="Z6">
-        <v>246211.27961752852</v>
+        <v>218764.48264999996</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5722,14 +5699,11 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>224819.32799999998</v>
       </c>
-      <c r="S7">
-        <v>43748.530924000079</v>
-      </c>
       <c r="U7">
         <v>2492.1</v>
       </c>
@@ -5740,7 +5714,7 @@
         <v>2680.6160959999825</v>
       </c>
       <c r="Z7">
-        <v>275132.57501999999</v>
+        <v>231384.04409599997</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5748,14 +5722,11 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>177981.96800000002</v>
       </c>
-      <c r="S8">
-        <v>45744.661612547548</v>
-      </c>
       <c r="U8">
         <v>5019.2999999999993</v>
       </c>
@@ -5766,7 +5737,7 @@
         <v>2680.6160959999825</v>
       </c>
       <c r="Z8">
-        <v>236530.54570854755</v>
+        <v>190785.88409599999</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5774,14 +5745,11 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>210768.12000000002</v>
       </c>
-      <c r="S9">
-        <v>27446.796967528528</v>
-      </c>
       <c r="U9">
         <v>1719.8999999999996</v>
       </c>
@@ -5792,7 +5760,7 @@
         <v>4188.4626499999722</v>
       </c>
       <c r="Z9">
-        <v>246211.27961752852</v>
+        <v>218764.48264999999</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5800,14 +5768,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>224819.32800000004</v>
       </c>
-      <c r="S10">
-        <v>43748.530924000021</v>
-      </c>
       <c r="U10">
         <v>2492.0999999999995</v>
       </c>
@@ -5818,7 +5783,7 @@
         <v>2680.6160959999825</v>
       </c>
       <c r="Z10">
-        <v>275132.57501999999</v>
+        <v>231384.04409600003</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5826,7 +5791,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>118788</v>
@@ -5906,7 +5871,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>140670</v>
@@ -5986,7 +5951,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>150048</v>
